--- a/my_java/src/main/resources/baiduInterface_v6.xlsx
+++ b/my_java/src/main/resources/baiduInterface_v6.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="83">
   <si>
     <t>ApiId(接口编号)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -314,6 +314,27 @@
   </si>
   <si>
     <t>{"status":0,"result":{"location":{"country":"中国","province":"吉林省","city":"延边朝鲜族自治州","name":"龙井","id":"222405"},"now":{"text":"阴","temp":-5,"feels_like":-11,"rh":70,"wind_class":"6级","wind_dir":"西风","uptime":"20210220170000"},"forecasts":[{"text_day":"多云","text_night":"多云","high":2,"low":-10,"wc_day":"3~4级","wd_day":"西风","wc_night":"&lt;3级","wd_night":"东北风","date":"2021-02-20","week":"星期六"},{"text_day":"多云","text_night":"多云","high":2,"low":-10,"wc_day":"&lt;3级","wd_day":"东风","wc_night":"&lt;3级","wd_night":"西风","date":"2021-02-21","week":"星期日"},{"text_day":"多云","text_night":"多云","high":1,"low":-13,"wc_day":"3~4级","wd_day":"西风","wc_night":"&lt;3级","wd_night":"西北风","date":"2021-02-22","week":"星期一"},{"text_day":"小雪","text_night":"多云","high":-5,"low":-14,"wc_day":"3~4级","wd_day":"西北风","wc_night":"&lt;3级","wd_night":"西北风","date":"2021-02-23","week":"星期二"},{"text_day":"多云","text_night":"多云","high":-2,"low":-10,"wc_day":"3~4级","wd_day":"南风","wc_night":"&lt;3级","wd_night":"西北风","date":"2021-02-24","week":"星期三"}]},"message":"success"}</t>
+  </si>
+  <si>
+    <t>{"status":0,"result":{"location":{"country":"中国","province":"吉林省","city":"延边朝鲜族自治州","name":"龙井","id":"222405"},"now":{"text":"多云","temp":-6,"feels_like":-8,"rh":92,"wind_class":"1级","wind_dir":"西北风","uptime":"20210220232000"},"forecasts":[{"text_day":"多云","text_night":"多云","high":2,"low":-11,"wc_day":"3~4级","wd_day":"西风","wc_night":"&lt;3级","wd_night":"东北风","date":"2021-02-20","week":"星期六"},{"text_day":"多云","text_night":"多云","high":2,"low":-10,"wc_day":"&lt;3级","wd_day":"东风","wc_night":"&lt;3级","wd_night":"西风","date":"2021-02-21","week":"星期日"},{"text_day":"多云","text_night":"多云","high":1,"low":-13,"wc_day":"3~4级","wd_day":"西南风","wc_night":"&lt;3级","wd_night":"西北风","date":"2021-02-22","week":"星期一"},{"text_day":"多云","text_night":"晴","high":-6,"low":-14,"wc_day":"4~5级","wd_day":"西北风","wc_night":"&lt;3级","wd_night":"西风","date":"2021-02-23","week":"星期二"},{"text_day":"晴","text_night":"多云","high":-2,"low":-10,"wc_day":"3~4级","wd_day":"西北风","wc_night":"&lt;3级","wd_night":"西风","date":"2021-02-24","week":"星期三"}]},"message":"success"}</t>
+  </si>
+  <si>
+    <t>{"status":0,"result":{"location":{"country":"中国","province":"吉林省","city":"延边朝鲜族自治州","name":"龙井","id":"222405"},"now":{"text":"多云","temp":-6,"feels_like":-11,"rh":79,"wind_class":"4级","wind_dir":"北风","uptime":"20210221105000"},"forecasts":[{"text_day":"多云","text_night":"多云","high":2,"low":-10,"wc_day":"&lt;3级","wd_day":"东风","wc_night":"&lt;3级","wd_night":"西风","date":"2021-02-21","week":"星期日"},{"text_day":"多云","text_night":"晴","high":-1,"low":-13,"wc_day":"3~4级","wd_day":"西风","wc_night":"3~4级","wd_night":"西风","date":"2021-02-22","week":"星期一"},{"text_day":"晴","text_night":"晴","high":-5,"low":-14,"wc_day":"3~4级","wd_day":"西风","wc_night":"&lt;3级","wd_night":"西风","date":"2021-02-23","week":"星期二"},{"text_day":"晴","text_night":"多云","high":-2,"low":-10,"wc_day":"3~4级","wd_day":"西北风","wc_night":"&lt;3级","wd_night":"西风","date":"2021-02-24","week":"星期三"},{"text_day":"晴","text_night":"晴","high":2,"low":-12,"wc_day":"&lt;3级","wd_day":"西北风","wc_night":"&lt;3级","wd_night":"西风","date":"2021-02-25","week":"星期四"}]},"message":"success"}</t>
+  </si>
+  <si>
+    <t>AIA</t>
+  </si>
+  <si>
+    <t>{"status":0,"result":{"location":{"country":"中国","province":"吉林省","city":"延边朝鲜族自治州","name":"龙井","id":"222405"},"now":{"text":"多云","temp":-6,"feels_like":-11,"rh":79,"wind_class":"4级","wind_dir":"北风","uptime":"20210221105500"},"forecasts":[{"text_day":"多云","text_night":"多云","high":2,"low":-10,"wc_day":"&lt;3级","wd_day":"东风","wc_night":"&lt;3级","wd_night":"西风","date":"2021-02-21","week":"星期日"},{"text_day":"多云","text_night":"晴","high":-1,"low":-13,"wc_day":"3~4级","wd_day":"西风","wc_night":"3~4级","wd_night":"西风","date":"2021-02-22","week":"星期一"},{"text_day":"晴","text_night":"晴","high":-5,"low":-14,"wc_day":"3~4级","wd_day":"西风","wc_night":"&lt;3级","wd_night":"西风","date":"2021-02-23","week":"星期二"},{"text_day":"晴","text_night":"多云","high":-2,"low":-10,"wc_day":"3~4级","wd_day":"西北风","wc_night":"&lt;3级","wd_night":"西风","date":"2021-02-24","week":"星期三"},{"text_day":"晴","text_night":"晴","high":2,"low":-12,"wc_day":"&lt;3级","wd_day":"西北风","wc_night":"&lt;3级","wd_night":"西风","date":"2021-02-25","week":"星期四"}]},"message":"success"}</t>
+  </si>
+  <si>
+    <t>[{"columnLabelAndValues":{"Population":"595","ID":"62","CountryCode":"AIA","District":"–","Name":"The Valley"},"no":"1"},{"columnLabelAndValues":{"continent":"Asia","code":"BGD","name":"Bangladesh"},"no":"2"}]</t>
+  </si>
+  <si>
+    <t>ARG</t>
+  </si>
+  <si>
+    <t>[{"columnLabelAndValues":{"Population":"91101","ID":"125","CountryCode":"ARG","District":"Buenos Aires","Name":"Tandil"},"no":"1"},{"columnLabelAndValues":{"continent":"Asia","code":"BGD","name":"Bangladesh"},"no":"2"}]</t>
   </si>
 </sst>
 </file>
@@ -876,7 +897,7 @@
         <v>60</v>
       </c>
       <c r="F2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>49</v>
@@ -934,13 +955,13 @@
         <v>50</v>
       </c>
       <c r="H4" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>50</v>
       </c>
       <c r="J4" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1034,7 +1055,7 @@
         <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>55</v>
